--- a/VerifyFileDownloaded/Main.rvl.xlsx
+++ b/VerifyFileDownloaded/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Flow</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>Verify that PDF files appear in the downloads folder and write result to the report</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Downloaded file path:</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>LastResult</t>
   </si>
 </sst>
 </file>
@@ -660,22 +678,42 @@
     </row>
     <row r="13">
       <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
+      <c r="B13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="48"/>
     </row>
     <row r="14">
       <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
+      <c r="B14" s="50" t="s">
+        <v>12</v>
+      </c>
       <c r="C14" s="51"/>
       <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
+      <c r="E14" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="56"/>
     </row>
     <row r="15">
